--- a/작업일지/고윤범/졸작 계획서_고윤범_2학기.xlsx
+++ b/작업일지/고윤범/졸작 계획서_고윤범_2학기.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8BCE6C-C688-4837-9370-6BD751D4157D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CB8CB-075F-4CC1-B1C1-2728B81E61C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>언리얼 인사이트</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타볼 프레임워크 구상</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주일 게임잼</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -786,20 +794,20 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1149,8 +1157,8 @@
   </sheetPr>
   <dimension ref="B1:AD33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1163,48 +1171,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <f>DATEVALUE("2023/08/28")</f>
         <v>45166</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -1564,31 +1572,33 @@
       <c r="G7" s="15"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1">
       <c r="B8" s="13" t="str">
@@ -2008,42 +2018,42 @@
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20" t="s">
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="22" t="s">
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
     </row>
     <row r="14" spans="2:30" ht="30" customHeight="1">
       <c r="B14" s="13" t="str">
@@ -2463,40 +2473,42 @@
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="20" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20" t="s">
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
     </row>
     <row r="20" spans="2:30" ht="30" customHeight="1">
       <c r="B20" s="13" t="str">
@@ -2916,42 +2928,42 @@
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21" t="s">
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="22" t="s">
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
     </row>
     <row r="26" spans="2:30" ht="30" customHeight="1">
       <c r="B26" s="13" t="str">
@@ -3371,15 +3383,15 @@
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="14"/>
       <c r="K31" s="15"/>
       <c r="L31" s="14"/>
@@ -3472,11 +3484,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="C31:I31"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="J13:P13"/>
     <mergeCell ref="Q13:W13"/>
@@ -3485,11 +3497,11 @@
     <mergeCell ref="J19:P19"/>
     <mergeCell ref="Q19:W19"/>
     <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="X7:AD7"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">

--- a/작업일지/고윤범/졸작 계획서_고윤범_2학기.xlsx
+++ b/작업일지/고윤범/졸작 계획서_고윤범_2학기.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CB8CB-075F-4CC1-B1C1-2728B81E61C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE108EE-11B2-40FF-A60C-E1ACF824A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="675" windowWidth="18825" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -55,23 +55,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 맵 추가</t>
+    <t>스팀 sdk와 온라인 서브 시스템, 서버 플러그인 구현</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>메시 모핑</t>
+    <t>게임잼 프로젝트에 서버 연결</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>uv 노이즈 마테리얼</t>
+    <t>ai 비헤이비어 트리</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>액터별 상호작용(파이프와 슬라임)</t>
+    <t>나이아가라로 소프트 바디 느낌내기</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>스팀 sdk와 온라인 서브 시스템, 서버 플러그인 구현</t>
+    <t>1주일 게임잼(특정 무브먼트와 매터리얼 효과와 충돌 기믹 위주로 구현)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시 모핑, uv 노이즈 마테리얼</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -79,23 +83,19 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ai 비헤이비어 트리</t>
+    <t>상태 동기화 실습</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>나이아가라</t>
+    <t>졸작 프로젝트에 서버와 클라이언트 권한 상호작용</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>언리얼 인사이트</t>
+    <t>언리얼 인사이트 사용법 학습</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>메타볼 프레임워크 구상</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주일 게임잼</t>
+    <t>언리얼 인사이트 분석 및 최적화</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -794,20 +794,20 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1157,8 +1157,8 @@
   </sheetPr>
   <dimension ref="B1:AD33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:AD7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1171,48 +1171,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <f>DATEVALUE("2023/08/28")</f>
         <v>45166</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -1572,33 +1572,33 @@
       <c r="G7" s="15"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
+      <c r="J7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1">
       <c r="B8" s="13" t="str">
@@ -2018,42 +2018,42 @@
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
+      <c r="C13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="23" t="s">
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
     </row>
     <row r="14" spans="2:30" ht="30" customHeight="1">
       <c r="B14" s="13" t="str">
@@ -2473,42 +2473,42 @@
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="22" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
     </row>
     <row r="20" spans="2:30" ht="30" customHeight="1">
       <c r="B20" s="13" t="str">
@@ -2928,42 +2928,42 @@
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="24" t="s">
+      <c r="C25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="23" t="s">
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
     </row>
     <row r="26" spans="2:30" ht="30" customHeight="1">
       <c r="B26" s="13" t="str">
@@ -3383,15 +3383,15 @@
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="14"/>
       <c r="K31" s="15"/>
       <c r="L31" s="14"/>
@@ -3484,11 +3484,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="X7:AD7"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="J13:P13"/>
     <mergeCell ref="Q13:W13"/>
@@ -3497,11 +3497,11 @@
     <mergeCell ref="J19:P19"/>
     <mergeCell ref="Q19:W19"/>
     <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:W7"/>
-    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="C31:I31"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">
